--- a/Excel-To-Do-List-.xlsx
+++ b/Excel-To-Do-List-.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Warushi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Warushi\Desktop\project_official\Tech-Care_official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0891B4-F36B-4299-B28B-24388DBFD654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08603F4C-12BC-4683-915E-DA232BEDF29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3660,7 +3660,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>

--- a/Excel-To-Do-List-.xlsx
+++ b/Excel-To-Do-List-.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Warushi\Desktop\project_official\Tech-Care_official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08603F4C-12BC-4683-915E-DA232BEDF29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BDCA87C-DAD4-4125-93AE-5C8F520BFFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,7 +739,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.10869565217391304</c:v>
+                  <c:v>0.14130434782608695</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1491,7 +1491,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$8" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1620,7 @@
               <a:cs typeface="Verdana"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>10.9%</a:t>
+            <a:t>14.1%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="800" b="1" i="1">
             <a:solidFill>
@@ -3811,7 +3811,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H10" s="1">
         <f>COUNTIFS($D$5:$D$29,$H$5,$E$5:$E$29,TRUE)*$I$5+COUNTIFS($D$5:$D$29,$H$6,$E$5:$E$29,TRUE)*$I$6+COUNTIFS($D$5:$D$29,$H$7,$E$5:$E$29,TRUE)*$I$7</f>
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H12" s="13">
         <f>IFERROR(H10/H11,0)</f>
-        <v>0.10869565217391304</v>
+        <v>0.14130434782608695</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1">

--- a/Excel-To-Do-List-.xlsx
+++ b/Excel-To-Do-List-.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Warushi\Desktop\project_official\Tech-Care_official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647C7E79-118C-4D7B-8FDE-2B655C454DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A9DA2-1ADF-4673-B897-41342C7E7A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="41">
   <si>
     <t>#</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Design landing page wireframe in Figma</t>
   </si>
   <si>
-    <t>mplement landing page in React</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Review and merge landing page branch into </t>
     </r>
@@ -302,6 +299,9 @@
       </rPr>
       <t xml:space="preserve"> and tag release</t>
     </r>
+  </si>
+  <si>
+    <t>implement landing page in React</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.17391304347826086</c:v>
+                  <c:v>0.22826086956521738</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1495,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" fmlaLink="$E$9" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1620,7 @@
               <a:cs typeface="Verdana"/>
             </a:rPr>
             <a:pPr algn="ctr"/>
-            <a:t>17.4%</a:t>
+            <a:t>22.8%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-GB" sz="800" b="1" i="1">
             <a:solidFill>
@@ -3660,7 +3660,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.6"/>
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15">
-        <v>42255</v>
+        <v>45849</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>20</v>
@@ -3802,7 +3802,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="15">
-        <v>42255</v>
+        <v>45727</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -3818,17 +3818,17 @@
       <c r="A9" s="14">
         <v>5</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
+      <c r="B9" s="15">
+        <v>45849</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>14</v>
@@ -3843,10 +3843,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -3859,7 +3859,7 @@
       </c>
       <c r="H10" s="1">
         <f>COUNTIFS($D$5:$D$29,$H$5,$E$5:$E$29,TRUE)*$I$5+COUNTIFS($D$5:$D$29,$H$6,$E$5:$E$29,TRUE)*$I$6+COUNTIFS($D$5:$D$29,$H$7,$E$5:$E$29,TRUE)*$I$7</f>
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" customHeight="1">
@@ -3867,10 +3867,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
@@ -3891,10 +3891,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="H12" s="13">
         <f>IFERROR(H10/H11,0)</f>
-        <v>0.17391304347826086</v>
+        <v>0.22826086956521738</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="12.75" customHeight="1">
@@ -3915,10 +3915,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>11</v>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B14" s="15"/>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>11</v>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="B15" s="15"/>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="B16" s="15"/>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -3978,7 +3978,7 @@
       </c>
       <c r="B17" s="15"/>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
         <v>10</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
@@ -4008,7 +4008,7 @@
       </c>
       <c r="B19" s="15"/>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -4023,7 +4023,7 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>11</v>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="B21" s="15"/>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
@@ -4068,7 +4068,7 @@
       </c>
       <c r="B23" s="15"/>
       <c r="C23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>10</v>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B25" s="15"/>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B26" s="15"/>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
